--- a/git.xlsx
+++ b/git.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>UserDetails</t>
   </si>
@@ -21,34 +21,103 @@
     <t>DoctorDetails</t>
   </si>
   <si>
+    <t>patientAnalysis</t>
+  </si>
+  <si>
+    <t>AppointmentDetails</t>
+  </si>
+  <si>
+    <t>TeamInfo</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>app.Id</t>
+  </si>
+  <si>
     <t>userPass</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>TeamType</t>
+  </si>
+  <si>
     <t xml:space="preserve">mobile </t>
   </si>
   <si>
     <t>mobile</t>
   </si>
   <si>
+    <t xml:space="preserve">chestPainType (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team ID</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
     <t>speciality</t>
   </si>
   <si>
+    <t>RestingBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start time</t>
+  </si>
+  <si>
     <t xml:space="preserve">available from</t>
   </si>
   <si>
+    <t>Cholestrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end time</t>
+  </si>
+  <si>
     <t xml:space="preserve">available till</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasting BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venue (address dr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resting ECG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max HR</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>OldPeak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST Slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isHeart Disease</t>
   </si>
 </sst>
 </file>
@@ -608,6 +677,9 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="10.61328125"/>
     <col bestFit="1" min="2" max="2" width="12.7109375"/>
+    <col customWidth="1" min="3" max="3" width="18.7109375"/>
+    <col bestFit="1" min="4" max="4" width="18.421875"/>
+    <col bestFit="1" min="5" max="5" width="13.28125"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15">
@@ -617,50 +689,131 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
